--- a/biology/Zoologie/Échelet_leucophée/Échelet_leucophée.xlsx
+++ b/biology/Zoologie/Échelet_leucophée/Échelet_leucophée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelet_leucoph%C3%A9e</t>
+          <t>Échelet_leucophée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cormobates leucophaea
 L’Échelet leucophée (Cormobates leucophaea) est une espèce de passereaux de la famille des Climacteridae. Il vit dans les forêts de l'est de l'Australie. C'est un petit oiseau au plumage surtout brun et blanc qui mesure environ 15 cm de longueur en moyenne. Il est insectivore, mangeant essentiellement des fourmis. Contrairement aux oiseaux du genre Climacteris, il ne se livre pas à une reproduction coopérative.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelet_leucoph%C3%A9e</t>
+          <t>Échelet_leucophée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure de 13 à 17 cm de longueur avec une envergure de 19 à 26 cm, soit en moyenne 23 cm, avec une masse moyenne de 22 g, il a une gorge blanche, la poitrine, le ventre et les flancs rayés de brun foncé et de blanc. Les parties supérieures et les ailes sont brun foncé, avec une tache chamois sur les ailes. Contrairement à d'autres échelets, il n'a pas de sourcil clair. Le bec et les pattes sont noirs. La femelle a une tache orange sur la nuque[1]. Les oiseaux immatures ont un croupion brun orangé et des  marques blanches sur les scapulaires. L'appel est un pépiement aigu.
-Alimentation
-L'oiseau se nourrit de fourmis[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure de 13 à 17 cm de longueur avec une envergure de 19 à 26 cm, soit en moyenne 23 cm, avec une masse moyenne de 22 g, il a une gorge blanche, la poitrine, le ventre et les flancs rayés de brun foncé et de blanc. Les parties supérieures et les ailes sont brun foncé, avec une tache chamois sur les ailes. Contrairement à d'autres échelets, il n'a pas de sourcil clair. Le bec et les pattes sont noirs. La femelle a une tache orange sur la nuque. Les oiseaux immatures ont un croupion brun orangé et des  marques blanches sur les scapulaires. L'appel est un pépiement aigu.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelet_leucoph%C3%A9e</t>
+          <t>Échelet_leucophée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce se trouve du golfe Saint-Vincent en Australie-Méridionale, au Victoria, dans l'est de la Nouvelle-Galles du Sud et au sud-est du Queensland, avec une zone plus au nord, du mont Spec à Cooktown.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oiseau se nourrit de fourmis
 </t>
         </is>
       </c>
@@ -559,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chelet_leucoph%C3%A9e</t>
+          <t>Échelet_leucophée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +592,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se trouve du golfe Saint-Vincent en Australie-Méridionale, au Victoria, dans l'est de la Nouvelle-Galles du Sud et au sud-est du Queensland, avec une zone plus au nord, du mont Spec à Cooktown.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échelet_leucophée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelet_leucoph%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau préfère les forêts humides et les forêts tropicales.
 </t>
